--- a/Code/Results/Cases/Case_2_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020554606630793</v>
+        <v>1.040937264949131</v>
       </c>
       <c r="D2">
-        <v>1.039221080245983</v>
+        <v>1.049243040488897</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.04000020644814</v>
+        <v>1.056369171670514</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056547876583739</v>
+        <v>1.043919016387306</v>
       </c>
       <c r="J2">
-        <v>1.042137444712554</v>
+        <v>1.046021175515715</v>
       </c>
       <c r="K2">
-        <v>1.050159763169208</v>
+        <v>1.052000642009906</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.050929043249304</v>
+        <v>1.059107071904279</v>
       </c>
       <c r="N2">
-        <v>1.043617399418881</v>
+        <v>1.047506645565254</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024746630938828</v>
+        <v>1.041808642010865</v>
       </c>
       <c r="D3">
-        <v>1.042563518049278</v>
+        <v>1.049957520938413</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.044004266458751</v>
+        <v>1.057258011100018</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058040404235203</v>
+        <v>1.044163549028801</v>
       </c>
       <c r="J3">
-        <v>1.044584680905828</v>
+        <v>1.046538764985156</v>
       </c>
       <c r="K3">
-        <v>1.052679284125583</v>
+        <v>1.052527581964361</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.054103440037915</v>
+        <v>1.059809345194445</v>
       </c>
       <c r="N3">
-        <v>1.046068110968252</v>
+        <v>1.048024970071109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027404461874179</v>
+        <v>1.042372748091604</v>
       </c>
       <c r="D4">
-        <v>1.044684608784036</v>
+        <v>1.050420022370961</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.046547900907375</v>
+        <v>1.057833799050167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058976012133437</v>
+        <v>1.04432054626854</v>
       </c>
       <c r="J4">
-        <v>1.046132219339267</v>
+        <v>1.046873288506397</v>
       </c>
       <c r="K4">
-        <v>1.05427205978625</v>
+        <v>1.05286805906132</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.056115207580262</v>
+        <v>1.060263773983092</v>
       </c>
       <c r="N4">
-        <v>1.047617847083772</v>
+        <v>1.048359968654121</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028509149062701</v>
+        <v>1.042609960909866</v>
       </c>
       <c r="D5">
-        <v>1.045566628531038</v>
+        <v>1.050614500703997</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.047606290423954</v>
+        <v>1.058076014191845</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059362282929379</v>
+        <v>1.044386252336392</v>
       </c>
       <c r="J5">
-        <v>1.046774428122282</v>
+        <v>1.047013827426154</v>
       </c>
       <c r="K5">
-        <v>1.054932921772699</v>
+        <v>1.053011077594502</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.056951128184255</v>
+        <v>1.060454817126871</v>
       </c>
       <c r="N5">
-        <v>1.04826096787692</v>
+        <v>1.048500707155263</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028693900284564</v>
+        <v>1.042649793621321</v>
       </c>
       <c r="D6">
-        <v>1.045714163782703</v>
+        <v>1.050647156933611</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.047783366463667</v>
+        <v>1.058116692157982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059426730100476</v>
+        <v>1.044397267321704</v>
       </c>
       <c r="J6">
-        <v>1.046881773346374</v>
+        <v>1.047037418941416</v>
       </c>
       <c r="K6">
-        <v>1.055043377665581</v>
+        <v>1.05303508408052</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.057090915034119</v>
+        <v>1.060486894147062</v>
       </c>
       <c r="N6">
-        <v>1.048368465543544</v>
+        <v>1.048524332173184</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027419271970764</v>
+        <v>1.042375917496408</v>
       </c>
       <c r="D7">
-        <v>1.044696432057461</v>
+        <v>1.050422620833964</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.046562085738072</v>
+        <v>1.057837034938057</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058981201030764</v>
+        <v>1.044321425398495</v>
       </c>
       <c r="J7">
-        <v>1.046140833169032</v>
+        <v>1.046875166768012</v>
       </c>
       <c r="K7">
-        <v>1.054280924289193</v>
+        <v>1.052869970547202</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.056126415421811</v>
+        <v>1.060266326707596</v>
       </c>
       <c r="N7">
-        <v>1.047626473146163</v>
+        <v>1.048361849583082</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021982908724859</v>
+        <v>1.041231694892895</v>
       </c>
       <c r="D8">
-        <v>1.040359486266792</v>
+        <v>1.049484463328362</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.041363404742327</v>
+        <v>1.05666942370339</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057058627002901</v>
+        <v>1.044001911959717</v>
       </c>
       <c r="J8">
-        <v>1.042972098558754</v>
+        <v>1.046196177727747</v>
       </c>
       <c r="K8">
-        <v>1.051019165932349</v>
+        <v>1.052178824252453</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.05201078199981</v>
+        <v>1.059344405356711</v>
       </c>
       <c r="N8">
-        <v>1.044453238569279</v>
+        <v>1.047681896300499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011964197280054</v>
+        <v>1.039217528006513</v>
       </c>
       <c r="D9">
-        <v>1.032384023205142</v>
+        <v>1.04783279200302</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.03182367825328</v>
+        <v>1.054616986954327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053432191262593</v>
+        <v>1.043429485440211</v>
       </c>
       <c r="J9">
-        <v>1.037101429468025</v>
+        <v>1.044996760278178</v>
       </c>
       <c r="K9">
-        <v>1.04497266752514</v>
+        <v>1.050957246771624</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.044420708238575</v>
+        <v>1.05772000622889</v>
       </c>
       <c r="N9">
-        <v>1.038574232455066</v>
+        <v>1.046480775540577</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004959692290553</v>
+        <v>1.037876235828152</v>
       </c>
       <c r="D10">
-        <v>1.026822417380334</v>
+        <v>1.046732763569756</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.025183844698055</v>
+        <v>1.053252180045797</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050842780457384</v>
+        <v>1.04304158649706</v>
       </c>
       <c r="J10">
-        <v>1.032977904317589</v>
+        <v>1.0441952256103</v>
       </c>
       <c r="K10">
-        <v>1.040723703366611</v>
+        <v>1.050140448480091</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.039112812418618</v>
+        <v>1.056637250252429</v>
       </c>
       <c r="N10">
-        <v>1.034444851425941</v>
+        <v>1.045678102601532</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001842232005454</v>
+        <v>1.037295809208183</v>
       </c>
       <c r="D11">
-        <v>1.024351206882458</v>
+        <v>1.046256715310129</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.022236249410922</v>
+        <v>1.052662049466073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049678051554736</v>
+        <v>1.042872140592187</v>
       </c>
       <c r="J11">
-        <v>1.031138572288656</v>
+        <v>1.043847708953515</v>
       </c>
       <c r="K11">
-        <v>1.038828056278787</v>
+        <v>1.049786207387523</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.036750662451929</v>
+        <v>1.056168463526442</v>
       </c>
       <c r="N11">
-        <v>1.032602907334554</v>
+        <v>1.045330092431235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00067091286098</v>
+        <v>1.037080268457163</v>
       </c>
       <c r="D12">
-        <v>1.023423371627405</v>
+        <v>1.046079932035786</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.02112993432284</v>
+        <v>1.05244297641147</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049238633077921</v>
+        <v>1.042808978666787</v>
       </c>
       <c r="J12">
-        <v>1.030446905566327</v>
+        <v>1.043718559662547</v>
       </c>
       <c r="K12">
-        <v>1.038115166950388</v>
+        <v>1.049654543130035</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.035863213673463</v>
+        <v>1.055994344652809</v>
       </c>
       <c r="N12">
-        <v>1.031910258366143</v>
+        <v>1.04520075973346</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000922780348103</v>
+        <v>1.037126500147521</v>
       </c>
       <c r="D13">
-        <v>1.023622851827277</v>
+        <v>1.046117850712748</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.021367769957157</v>
+        <v>1.052489962521024</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04933320114735</v>
+        <v>1.042822537157526</v>
       </c>
       <c r="J13">
-        <v>1.030595659351644</v>
+        <v>1.043746265600345</v>
       </c>
       <c r="K13">
-        <v>1.038268486915432</v>
+        <v>1.049682789314052</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.036054036487975</v>
+        <v>1.056031693296316</v>
       </c>
       <c r="N13">
-        <v>1.032059223398897</v>
+        <v>1.045228505016868</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001745686858174</v>
+        <v>1.037277991402586</v>
       </c>
       <c r="D14">
-        <v>1.024274716769385</v>
+        <v>1.046242101479157</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.022145037905873</v>
+        <v>1.052643938204691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049641869037199</v>
+        <v>1.042866924136216</v>
       </c>
       <c r="J14">
-        <v>1.031081573653591</v>
+        <v>1.043837034776092</v>
       </c>
       <c r="K14">
-        <v>1.038769309617468</v>
+        <v>1.049775325672756</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.036677513239072</v>
+        <v>1.056154070606904</v>
       </c>
       <c r="N14">
-        <v>1.032545827754888</v>
+        <v>1.045319403095256</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002250916300024</v>
+        <v>1.037371337559819</v>
       </c>
       <c r="D15">
-        <v>1.024675024052653</v>
+        <v>1.046318662119403</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.022622404329779</v>
+        <v>1.052738824675359</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049831142460754</v>
+        <v>1.042894242998222</v>
       </c>
       <c r="J15">
-        <v>1.03137982934997</v>
+        <v>1.043892951927992</v>
       </c>
       <c r="K15">
-        <v>1.039076710365645</v>
+        <v>1.049832329366484</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.037060313143525</v>
+        <v>1.056229472590332</v>
       </c>
       <c r="N15">
-        <v>1.032844507008566</v>
+        <v>1.045375399655925</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005164752481966</v>
+        <v>1.037914764554493</v>
       </c>
       <c r="D16">
-        <v>1.026985058182207</v>
+        <v>1.046764363167848</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.025377892833522</v>
+        <v>1.053291362894726</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050919142166165</v>
+        <v>1.0430528008717</v>
       </c>
       <c r="J16">
-        <v>1.033098809693337</v>
+        <v>1.044218279817218</v>
       </c>
       <c r="K16">
-        <v>1.040848303700277</v>
+        <v>1.050163946546838</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.039268198129903</v>
+        <v>1.056668363328183</v>
       </c>
       <c r="N16">
-        <v>1.034565928501191</v>
+        <v>1.045701189548069</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006969455346333</v>
+        <v>1.03825573964063</v>
       </c>
       <c r="D17">
-        <v>1.028416904400399</v>
+        <v>1.047044013346232</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.027086546586352</v>
+        <v>1.053638181455989</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051589797938407</v>
+        <v>1.04315186342491</v>
       </c>
       <c r="J17">
-        <v>1.034162417357709</v>
+        <v>1.044422230479594</v>
       </c>
       <c r="K17">
-        <v>1.041944375853538</v>
+        <v>1.050371811543088</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.040635752952288</v>
+        <v>1.05694368321188</v>
       </c>
       <c r="N17">
-        <v>1.035631046610444</v>
+        <v>1.045905429843779</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008014005767455</v>
+        <v>1.038454659462654</v>
       </c>
       <c r="D18">
-        <v>1.029246029717706</v>
+        <v>1.047207154642181</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.028076219134834</v>
+        <v>1.053840555781761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051976801114958</v>
+        <v>1.043209501794802</v>
       </c>
       <c r="J18">
-        <v>1.034777635351464</v>
+        <v>1.044541148267954</v>
       </c>
       <c r="K18">
-        <v>1.042578337245819</v>
+        <v>1.050493001376123</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.041427301504559</v>
+        <v>1.057104277740764</v>
       </c>
       <c r="N18">
-        <v>1.036247138284316</v>
+        <v>1.046024516509038</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008368815689096</v>
+        <v>1.038522491851809</v>
       </c>
       <c r="D19">
-        <v>1.029527727736052</v>
+        <v>1.047262785986286</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.028412508239922</v>
+        <v>1.05390957387658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052108057732379</v>
+        <v>1.043229130690472</v>
       </c>
       <c r="J19">
-        <v>1.034986543362933</v>
+        <v>1.044581688805643</v>
       </c>
       <c r="K19">
-        <v>1.042793603735074</v>
+        <v>1.050534314733322</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.041696173912538</v>
+        <v>1.05715903714987</v>
       </c>
       <c r="N19">
-        <v>1.036456342969125</v>
+        <v>1.046065114618942</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006776670531138</v>
+        <v>1.038219152630293</v>
       </c>
       <c r="D20">
-        <v>1.02826390943565</v>
+        <v>1.04701400682055</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.026903947621023</v>
+        <v>1.053600962724818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051518276937816</v>
+        <v>1.043141249751566</v>
       </c>
       <c r="J20">
-        <v>1.034048839308353</v>
+        <v>1.044400352962986</v>
       </c>
       <c r="K20">
-        <v>1.041827334623104</v>
+        <v>1.050349515205022</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.040489663801957</v>
+        <v>1.056914143457071</v>
       </c>
       <c r="N20">
-        <v>1.03551730726723</v>
+        <v>1.045883521258588</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001503735654293</v>
+        <v>1.037233379461062</v>
       </c>
       <c r="D21">
-        <v>1.024083036350743</v>
+        <v>1.046205511547234</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.021916472490836</v>
+        <v>1.052598592665538</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049551163474822</v>
+        <v>1.042853859405129</v>
       </c>
       <c r="J21">
-        <v>1.030938720560299</v>
+        <v>1.04381030733369</v>
       </c>
       <c r="K21">
-        <v>1.038622074818196</v>
+        <v>1.049748078313393</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.036494195875077</v>
+        <v>1.056118033269384</v>
       </c>
       <c r="N21">
-        <v>1.032402771793818</v>
+        <v>1.045292637696819</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9981107978166228</v>
+        <v>1.036613906667855</v>
       </c>
       <c r="D22">
-        <v>1.021396729094141</v>
+        <v>1.045697423631269</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.018714119266909</v>
+        <v>1.051969102528305</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048274960857648</v>
+        <v>1.042671880591956</v>
       </c>
       <c r="J22">
-        <v>1.028934134281287</v>
+        <v>1.043438940108183</v>
       </c>
       <c r="K22">
-        <v>1.036555904531106</v>
+        <v>1.049369449413902</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.033923743697148</v>
+        <v>1.055617542168983</v>
       </c>
       <c r="N22">
-        <v>1.030395338772361</v>
+        <v>1.044920743087256</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.999917051463774</v>
+        <v>1.036942270003429</v>
       </c>
       <c r="D23">
-        <v>1.022826412687329</v>
+        <v>1.045966746916418</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.020418248110617</v>
+        <v>1.052302736529324</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048955323065515</v>
+        <v>1.042768472599689</v>
       </c>
       <c r="J23">
-        <v>1.030001590962891</v>
+        <v>1.043635844786367</v>
       </c>
       <c r="K23">
-        <v>1.037656176845585</v>
+        <v>1.049570213046444</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.035292079592709</v>
+        <v>1.055882856321967</v>
       </c>
       <c r="N23">
-        <v>1.031464311364892</v>
+        <v>1.045117927392668</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006863806680683</v>
+        <v>1.038235684617901</v>
       </c>
       <c r="D24">
-        <v>1.028333059927023</v>
+        <v>1.047027565397476</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.02698647769054</v>
+        <v>1.053617780017487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0515506070954</v>
+        <v>1.043146046056031</v>
       </c>
       <c r="J24">
-        <v>1.034100176278616</v>
+        <v>1.044410238604559</v>
       </c>
       <c r="K24">
-        <v>1.041880237050692</v>
+        <v>1.050359590128355</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.040555694089652</v>
+        <v>1.056927491185126</v>
       </c>
       <c r="N24">
-        <v>1.03556871714188</v>
+        <v>1.045893420938906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014609300245928</v>
+        <v>1.039737981986605</v>
       </c>
       <c r="D25">
-        <v>1.034487403637415</v>
+        <v>1.048259603785223</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.034337340469327</v>
+        <v>1.055146983757024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054399114536174</v>
+        <v>1.043578581521265</v>
       </c>
       <c r="J25">
-        <v>1.038654811224935</v>
+        <v>1.04530718190413</v>
       </c>
       <c r="K25">
-        <v>1.046572938100728</v>
+        <v>1.051273484112622</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.046425012433376</v>
+        <v>1.058139927029107</v>
       </c>
       <c r="N25">
-        <v>1.040129820192246</v>
+        <v>1.046791638000843</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040937264949131</v>
+        <v>1.020554606630792</v>
       </c>
       <c r="D2">
-        <v>1.049243040488897</v>
+        <v>1.039221080245982</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.056369171670514</v>
+        <v>1.04000020644814</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043919016387306</v>
+        <v>1.056547876583739</v>
       </c>
       <c r="J2">
-        <v>1.046021175515715</v>
+        <v>1.042137444712553</v>
       </c>
       <c r="K2">
-        <v>1.052000642009906</v>
+        <v>1.050159763169207</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.059107071904279</v>
+        <v>1.050929043249304</v>
       </c>
       <c r="N2">
-        <v>1.047506645565254</v>
+        <v>1.043617399418881</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041808642010865</v>
+        <v>1.024746630938828</v>
       </c>
       <c r="D3">
-        <v>1.049957520938413</v>
+        <v>1.042563518049278</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.057258011100018</v>
+        <v>1.044004266458751</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044163549028801</v>
+        <v>1.058040404235204</v>
       </c>
       <c r="J3">
-        <v>1.046538764985156</v>
+        <v>1.044584680905828</v>
       </c>
       <c r="K3">
-        <v>1.052527581964361</v>
+        <v>1.052679284125583</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.059809345194445</v>
+        <v>1.054103440037916</v>
       </c>
       <c r="N3">
-        <v>1.048024970071109</v>
+        <v>1.046068110968252</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042372748091604</v>
+        <v>1.027404461874178</v>
       </c>
       <c r="D4">
-        <v>1.050420022370961</v>
+        <v>1.044684608784036</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.057833799050167</v>
+        <v>1.046547900907374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04432054626854</v>
+        <v>1.058976012133437</v>
       </c>
       <c r="J4">
-        <v>1.046873288506397</v>
+        <v>1.046132219339266</v>
       </c>
       <c r="K4">
-        <v>1.05286805906132</v>
+        <v>1.05427205978625</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.060263773983092</v>
+        <v>1.056115207580261</v>
       </c>
       <c r="N4">
-        <v>1.048359968654121</v>
+        <v>1.047617847083771</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042609960909866</v>
+        <v>1.028509149062701</v>
       </c>
       <c r="D5">
-        <v>1.050614500703997</v>
+        <v>1.045566628531037</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.058076014191845</v>
+        <v>1.047606290423953</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044386252336392</v>
+        <v>1.059362282929379</v>
       </c>
       <c r="J5">
-        <v>1.047013827426154</v>
+        <v>1.046774428122281</v>
       </c>
       <c r="K5">
-        <v>1.053011077594502</v>
+        <v>1.054932921772698</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.060454817126871</v>
+        <v>1.056951128184254</v>
       </c>
       <c r="N5">
-        <v>1.048500707155263</v>
+        <v>1.04826096787692</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042649793621321</v>
+        <v>1.028693900284563</v>
       </c>
       <c r="D6">
-        <v>1.050647156933611</v>
+        <v>1.045714163782702</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.058116692157982</v>
+        <v>1.047783366463666</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044397267321704</v>
+        <v>1.059426730100476</v>
       </c>
       <c r="J6">
-        <v>1.047037418941416</v>
+        <v>1.046881773346373</v>
       </c>
       <c r="K6">
-        <v>1.05303508408052</v>
+        <v>1.05504337766558</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.060486894147062</v>
+        <v>1.057090915034118</v>
       </c>
       <c r="N6">
-        <v>1.048524332173184</v>
+        <v>1.048368465543543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042375917496408</v>
+        <v>1.027419271970765</v>
       </c>
       <c r="D7">
-        <v>1.050422620833964</v>
+        <v>1.044696432057461</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.057837034938057</v>
+        <v>1.046562085738072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044321425398495</v>
+        <v>1.058981201030764</v>
       </c>
       <c r="J7">
-        <v>1.046875166768012</v>
+        <v>1.046140833169033</v>
       </c>
       <c r="K7">
-        <v>1.052869970547202</v>
+        <v>1.054280924289194</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.060266326707596</v>
+        <v>1.056126415421811</v>
       </c>
       <c r="N7">
-        <v>1.048361849583082</v>
+        <v>1.047626473146163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041231694892895</v>
+        <v>1.021982908724859</v>
       </c>
       <c r="D8">
-        <v>1.049484463328362</v>
+        <v>1.040359486266792</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.05666942370339</v>
+        <v>1.041363404742327</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044001911959717</v>
+        <v>1.057058627002901</v>
       </c>
       <c r="J8">
-        <v>1.046196177727747</v>
+        <v>1.042972098558754</v>
       </c>
       <c r="K8">
-        <v>1.052178824252453</v>
+        <v>1.051019165932349</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.059344405356711</v>
+        <v>1.05201078199981</v>
       </c>
       <c r="N8">
-        <v>1.047681896300499</v>
+        <v>1.044453238569279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039217528006513</v>
+        <v>1.011964197280054</v>
       </c>
       <c r="D9">
-        <v>1.04783279200302</v>
+        <v>1.032384023205142</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.054616986954327</v>
+        <v>1.031823678253281</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043429485440211</v>
+        <v>1.053432191262593</v>
       </c>
       <c r="J9">
-        <v>1.044996760278178</v>
+        <v>1.037101429468025</v>
       </c>
       <c r="K9">
-        <v>1.050957246771624</v>
+        <v>1.044972667525141</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.05772000622889</v>
+        <v>1.044420708238575</v>
       </c>
       <c r="N9">
-        <v>1.046480775540577</v>
+        <v>1.038574232455066</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037876235828152</v>
+        <v>1.004959692290553</v>
       </c>
       <c r="D10">
-        <v>1.046732763569756</v>
+        <v>1.026822417380334</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.053252180045797</v>
+        <v>1.025183844698055</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04304158649706</v>
+        <v>1.050842780457383</v>
       </c>
       <c r="J10">
-        <v>1.0441952256103</v>
+        <v>1.032977904317588</v>
       </c>
       <c r="K10">
-        <v>1.050140448480091</v>
+        <v>1.040723703366611</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.056637250252429</v>
+        <v>1.039112812418617</v>
       </c>
       <c r="N10">
-        <v>1.045678102601532</v>
+        <v>1.034444851425941</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037295809208183</v>
+        <v>1.001842232005454</v>
       </c>
       <c r="D11">
-        <v>1.046256715310129</v>
+        <v>1.024351206882458</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.052662049466073</v>
+        <v>1.022236249410923</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042872140592187</v>
+        <v>1.049678051554736</v>
       </c>
       <c r="J11">
-        <v>1.043847708953515</v>
+        <v>1.031138572288657</v>
       </c>
       <c r="K11">
-        <v>1.049786207387523</v>
+        <v>1.038828056278788</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.056168463526442</v>
+        <v>1.03675066245193</v>
       </c>
       <c r="N11">
-        <v>1.045330092431235</v>
+        <v>1.032602907334554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037080268457163</v>
+        <v>1.00067091286098</v>
       </c>
       <c r="D12">
-        <v>1.046079932035786</v>
+        <v>1.023423371627405</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.05244297641147</v>
+        <v>1.02112993432284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042808978666787</v>
+        <v>1.049238633077922</v>
       </c>
       <c r="J12">
-        <v>1.043718559662547</v>
+        <v>1.030446905566327</v>
       </c>
       <c r="K12">
-        <v>1.049654543130035</v>
+        <v>1.038115166950388</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.055994344652809</v>
+        <v>1.035863213673463</v>
       </c>
       <c r="N12">
-        <v>1.04520075973346</v>
+        <v>1.031910258366143</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037126500147521</v>
+        <v>1.000922780348102</v>
       </c>
       <c r="D13">
-        <v>1.046117850712748</v>
+        <v>1.023622851827276</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.052489962521024</v>
+        <v>1.021367769957157</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042822537157526</v>
+        <v>1.04933320114735</v>
       </c>
       <c r="J13">
-        <v>1.043746265600345</v>
+        <v>1.030595659351643</v>
       </c>
       <c r="K13">
-        <v>1.049682789314052</v>
+        <v>1.038268486915432</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.056031693296316</v>
+        <v>1.036054036487974</v>
       </c>
       <c r="N13">
-        <v>1.045228505016868</v>
+        <v>1.032059223398896</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037277991402586</v>
+        <v>1.001745686858173</v>
       </c>
       <c r="D14">
-        <v>1.046242101479157</v>
+        <v>1.024274716769385</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.052643938204691</v>
+        <v>1.022145037905873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042866924136216</v>
+        <v>1.049641869037199</v>
       </c>
       <c r="J14">
-        <v>1.043837034776092</v>
+        <v>1.03108157365359</v>
       </c>
       <c r="K14">
-        <v>1.049775325672756</v>
+        <v>1.038769309617468</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.056154070606904</v>
+        <v>1.036677513239071</v>
       </c>
       <c r="N14">
-        <v>1.045319403095256</v>
+        <v>1.032545827754887</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037371337559819</v>
+        <v>1.002250916300023</v>
       </c>
       <c r="D15">
-        <v>1.046318662119403</v>
+        <v>1.024675024052653</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.052738824675359</v>
+        <v>1.022622404329778</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042894242998222</v>
+        <v>1.049831142460754</v>
       </c>
       <c r="J15">
-        <v>1.043892951927992</v>
+        <v>1.03137982934997</v>
       </c>
       <c r="K15">
-        <v>1.049832329366484</v>
+        <v>1.039076710365645</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.056229472590332</v>
+        <v>1.037060313143524</v>
       </c>
       <c r="N15">
-        <v>1.045375399655925</v>
+        <v>1.032844507008566</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037914764554493</v>
+        <v>1.005164752481965</v>
       </c>
       <c r="D16">
-        <v>1.046764363167848</v>
+        <v>1.026985058182206</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.053291362894726</v>
+        <v>1.025377892833522</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0430528008717</v>
+        <v>1.050919142166165</v>
       </c>
       <c r="J16">
-        <v>1.044218279817218</v>
+        <v>1.033098809693336</v>
       </c>
       <c r="K16">
-        <v>1.050163946546838</v>
+        <v>1.040848303700276</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.056668363328183</v>
+        <v>1.039268198129903</v>
       </c>
       <c r="N16">
-        <v>1.045701189548069</v>
+        <v>1.034565928501191</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03825573964063</v>
+        <v>1.006969455346333</v>
       </c>
       <c r="D17">
-        <v>1.047044013346232</v>
+        <v>1.028416904400399</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.053638181455989</v>
+        <v>1.027086546586352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04315186342491</v>
+        <v>1.051589797938407</v>
       </c>
       <c r="J17">
-        <v>1.044422230479594</v>
+        <v>1.03416241735771</v>
       </c>
       <c r="K17">
-        <v>1.050371811543088</v>
+        <v>1.041944375853538</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.05694368321188</v>
+        <v>1.040635752952288</v>
       </c>
       <c r="N17">
-        <v>1.045905429843779</v>
+        <v>1.035631046610445</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038454659462654</v>
+        <v>1.008014005767454</v>
       </c>
       <c r="D18">
-        <v>1.047207154642181</v>
+        <v>1.029246029717705</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.053840555781761</v>
+        <v>1.028076219134833</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043209501794802</v>
+        <v>1.051976801114958</v>
       </c>
       <c r="J18">
-        <v>1.044541148267954</v>
+        <v>1.034777635351463</v>
       </c>
       <c r="K18">
-        <v>1.050493001376123</v>
+        <v>1.042578337245819</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.057104277740764</v>
+        <v>1.041427301504559</v>
       </c>
       <c r="N18">
-        <v>1.046024516509038</v>
+        <v>1.036247138284316</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038522491851809</v>
+        <v>1.008368815689096</v>
       </c>
       <c r="D19">
-        <v>1.047262785986286</v>
+        <v>1.029527727736052</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.05390957387658</v>
+        <v>1.028412508239921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043229130690472</v>
+        <v>1.052108057732379</v>
       </c>
       <c r="J19">
-        <v>1.044581688805643</v>
+        <v>1.034986543362933</v>
       </c>
       <c r="K19">
-        <v>1.050534314733322</v>
+        <v>1.042793603735074</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.05715903714987</v>
+        <v>1.041696173912537</v>
       </c>
       <c r="N19">
-        <v>1.046065114618942</v>
+        <v>1.036456342969124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038219152630293</v>
+        <v>1.006776670531137</v>
       </c>
       <c r="D20">
-        <v>1.04701400682055</v>
+        <v>1.02826390943565</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.053600962724818</v>
+        <v>1.026903947621022</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043141249751566</v>
+        <v>1.051518276937816</v>
       </c>
       <c r="J20">
-        <v>1.044400352962986</v>
+        <v>1.034048839308352</v>
       </c>
       <c r="K20">
-        <v>1.050349515205022</v>
+        <v>1.041827334623104</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.056914143457071</v>
+        <v>1.040489663801956</v>
       </c>
       <c r="N20">
-        <v>1.045883521258588</v>
+        <v>1.035517307267229</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037233379461062</v>
+        <v>1.001503735654293</v>
       </c>
       <c r="D21">
-        <v>1.046205511547234</v>
+        <v>1.024083036350742</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.052598592665538</v>
+        <v>1.021916472490835</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042853859405129</v>
+        <v>1.049551163474822</v>
       </c>
       <c r="J21">
-        <v>1.04381030733369</v>
+        <v>1.030938720560298</v>
       </c>
       <c r="K21">
-        <v>1.049748078313393</v>
+        <v>1.038622074818196</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.056118033269384</v>
+        <v>1.036494195875077</v>
       </c>
       <c r="N21">
-        <v>1.045292637696819</v>
+        <v>1.032402771793818</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036613906667855</v>
+        <v>0.9981107978166227</v>
       </c>
       <c r="D22">
-        <v>1.045697423631269</v>
+        <v>1.021396729094141</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.051969102528305</v>
+        <v>1.018714119266908</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042671880591956</v>
+        <v>1.048274960857648</v>
       </c>
       <c r="J22">
-        <v>1.043438940108183</v>
+        <v>1.028934134281286</v>
       </c>
       <c r="K22">
-        <v>1.049369449413902</v>
+        <v>1.036555904531105</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.055617542168983</v>
+        <v>1.033923743697148</v>
       </c>
       <c r="N22">
-        <v>1.044920743087256</v>
+        <v>1.03039533877236</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036942270003429</v>
+        <v>0.9999170514637737</v>
       </c>
       <c r="D23">
-        <v>1.045966746916418</v>
+        <v>1.022826412687329</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.052302736529324</v>
+        <v>1.020418248110617</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042768472599689</v>
+        <v>1.048955323065514</v>
       </c>
       <c r="J23">
-        <v>1.043635844786367</v>
+        <v>1.030001590962891</v>
       </c>
       <c r="K23">
-        <v>1.049570213046444</v>
+        <v>1.037656176845585</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.055882856321967</v>
+        <v>1.035292079592709</v>
       </c>
       <c r="N23">
-        <v>1.045117927392668</v>
+        <v>1.031464311364891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038235684617901</v>
+        <v>1.006863806680682</v>
       </c>
       <c r="D24">
-        <v>1.047027565397476</v>
+        <v>1.028333059927023</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.053617780017487</v>
+        <v>1.026986477690539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043146046056031</v>
+        <v>1.051550607095401</v>
       </c>
       <c r="J24">
-        <v>1.044410238604559</v>
+        <v>1.034100176278616</v>
       </c>
       <c r="K24">
-        <v>1.050359590128355</v>
+        <v>1.041880237050691</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.056927491185126</v>
+        <v>1.040555694089651</v>
       </c>
       <c r="N24">
-        <v>1.045893420938906</v>
+        <v>1.03556871714188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039737981986605</v>
+        <v>1.014609300245929</v>
       </c>
       <c r="D25">
-        <v>1.048259603785223</v>
+        <v>1.034487403637415</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.055146983757024</v>
+        <v>1.034337340469328</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043578581521265</v>
+        <v>1.054399114536174</v>
       </c>
       <c r="J25">
-        <v>1.04530718190413</v>
+        <v>1.038654811224935</v>
       </c>
       <c r="K25">
-        <v>1.051273484112622</v>
+        <v>1.046572938100729</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.058139927029107</v>
+        <v>1.046425012433377</v>
       </c>
       <c r="N25">
-        <v>1.046791638000843</v>
+        <v>1.040129820192247</v>
       </c>
     </row>
   </sheetData>
